--- a/2023/north-macedonia_1-mfl_2023-2024.xlsx
+++ b/2023/north-macedonia_1-mfl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V45"/>
+  <dimension ref="A1:V46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.11</v>
+        <v>2.24</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>05/08/2023 05:12</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.15</v>
+        <v>2.34</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:08</t>
+          <t>06/08/2023 16:51</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>05/08/2023 05:12</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:08</t>
+          <t>06/08/2023 16:12</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.12</v>
+        <v>2.87</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>05/08/2023 05:12</t>
+          <t>05/08/2023 05:13</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>3.32</v>
+        <v>2.82</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>06/08/2023 16:08</t>
+          <t>06/08/2023 16:51</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-sileks/vmZhpcDo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-makedonija-gp/xreALDzo/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.24</v>
+        <v>1.2</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.34</v>
+        <v>1.42</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:51</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>2.84</v>
+        <v>5.7</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:12</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.87</v>
+        <v>10.45</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>05/08/2023 05:13</t>
+          <t>06/08/2023 11:43</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.82</v>
+        <v>6.35</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>06/08/2023 16:51</t>
+          <t>06/08/2023 16:59</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-makedonija-gp/xreALDzo/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -872,15 +872,15 @@
         </is>
       </c>
       <c r="L5" t="n">
-        <v>1.42</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.7</v>
+        <v>3.02</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -888,15 +888,15 @@
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.1</v>
+        <v>3.19</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>10.45</v>
+        <v>4.15</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
@@ -904,16 +904,16 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>6.35</v>
+        <v>5.47</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>06/08/2023 16:59</t>
+          <t>06/08/2023 16:19</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/struga-kf-gostivar/0M3rQgST/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-vardar/S85zSFcH/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Sileks</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
         <v>1</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Vardar</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
       <c r="J6" t="n">
-        <v>1.85</v>
+        <v>2.11</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1.64</v>
+        <v>2.15</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:08</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>3.02</v>
+        <v>2.81</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:12</t>
         </is>
       </c>
       <c r="P6" t="n">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:08</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>4.15</v>
+        <v>3.12</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>06/08/2023 11:43</t>
+          <t>05/08/2023 05:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>5.47</v>
+        <v>3.32</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>06/08/2023 16:19</t>
+          <t>06/08/2023 16:08</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-vardar/S85zSFcH/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-sileks/vmZhpcDo/</t>
         </is>
       </c>
     </row>
@@ -1125,71 +1125,71 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Rabotnicki</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Shkupi</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
       <c r="J8" t="n">
-        <v>3.95</v>
+        <v>2.29</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>5.57</v>
+        <v>2.31</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.15</v>
+        <v>2.81</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.41</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:54</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.85</v>
+        <v>2.82</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>13/08/2023 10:37</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>1.58</v>
+        <v>2.56</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 16:31</t>
+          <t>13/08/2023 16:57</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,63 +1225,63 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.29</v>
+        <v>1.66</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.31</v>
+        <v>1.79</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>2.81</v>
+        <v>3.39</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.05</v>
+        <v>3.36</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:54</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>2.82</v>
+        <v>4.63</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:38</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.56</v>
+        <v>4.03</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 16:57</t>
+          <t>13/08/2023 15:40</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-rabotnicki/j5o4sec4/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Bregalnica Stip</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>3.95</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.98</v>
+        <v>5.57</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>2.88</v>
+        <v>3.15</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>2.99</v>
+        <v>3.41</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:12</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.08</v>
+        <v>1.85</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>12/08/2023 05:12</t>
+          <t>13/08/2023 10:37</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.78</v>
+        <v>1.58</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>13/08/2023 16:45</t>
+          <t>13/08/2023 16:31</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-shkupi/CEn0ryrb/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>1</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bregalnica Stip</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Tikves</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>3</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.13</v>
+        <v>2.1</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>2.94</v>
+        <v>2.88</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.04</v>
+        <v>2.99</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:12</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.21</v>
+        <v>3.08</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>13/08/2023 10:38</t>
+          <t>12/08/2023 05:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.45</v>
+        <v>3.78</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>13/08/2023 16:59</t>
+          <t>13/08/2023 16:45</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-bregalnica-stip/YTz9tFCA/</t>
         </is>
       </c>
     </row>
@@ -1493,22 +1493,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1.66</v>
+        <v>3.13</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1516,15 +1516,15 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.79</v>
+        <v>2.05</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.39</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1532,15 +1532,15 @@
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.36</v>
+        <v>3.04</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.63</v>
+        <v>2.21</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>4.03</v>
+        <v>3.45</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>13/08/2023 15:40</t>
+          <t>13/08/2023 16:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-voska-sport/KpwLwDdT/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-tikves/nXvDuZRG/</t>
         </is>
       </c>
     </row>
@@ -1585,22 +1585,22 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G13" t="n">
+        <v>3</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Vardar</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
         <v>2</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>KF Gostivar</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>1</v>
-      </c>
       <c r="J13" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.29</v>
+        <v>1.95</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>4.55</v>
+        <v>3.15</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.41</v>
+        <v>4.24</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>6.27</v>
+        <v>3.62</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:22</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>1.96</v>
+        <v>1.31</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.89</v>
+        <v>1.4</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>2.97</v>
+        <v>4.13</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.12</v>
+        <v>4.3</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.33</v>
+        <v>7.01</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>3.88</v>
+        <v>5.69</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>20/08/2023 16:59</t>
+          <t>20/08/2023 16:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
         </is>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1777,14 +1777,14 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.31</v>
+        <v>1.96</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1792,15 +1792,15 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.4</v>
+        <v>1.89</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>4.13</v>
+        <v>2.97</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1808,15 +1808,15 @@
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.3</v>
+        <v>3.12</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>7.01</v>
+        <v>3.33</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
@@ -1824,16 +1824,16 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>5.69</v>
+        <v>3.88</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>20/08/2023 16:58</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-sileks/QNanfYtA/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-makedonija-gp/nX0reER3/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>KF Gostivar</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
         <v>1</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Shkendija</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
-        <v>2</v>
-      </c>
       <c r="J16" t="n">
-        <v>4.42</v>
+        <v>1.67</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>3.91</v>
+        <v>1.29</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.3</v>
+        <v>3.49</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.28</v>
+        <v>4.55</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>1.61</v>
+        <v>4.41</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>19/08/2023 05:12</t>
+          <t>20/08/2023 08:55</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>6.27</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>20/08/2023 16:41</t>
+          <t>20/08/2023 16:59</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-kf-gostivar/48BwdfCc/</t>
         </is>
       </c>
     </row>
@@ -1953,71 +1953,71 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I17" t="n">
         <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>1.74</v>
+        <v>4.42</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1.95</v>
+        <v>3.91</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>3.33</v>
+        <v>3.3</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="P17" t="n">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="R17" t="n">
-        <v>4.24</v>
+        <v>1.61</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>20/08/2023 08:55</t>
+          <t>19/08/2023 05:12</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>3.62</v>
+        <v>1.83</v>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>20/08/2023 16:22</t>
+          <t>20/08/2023 16:41</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-vardar/0vLmZW4p/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-shkendija-tetovo/hY7Zdzci/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>3.32</v>
+        <v>2.63</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>3.1</v>
+        <v>3.52</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.34</v>
+        <v>1.79</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>23/08/2023 15:31</t>
+          <t>23/08/2023 16:26</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
         </is>
       </c>
     </row>
@@ -2229,7 +2229,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -2237,63 +2237,63 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>1.33</v>
+        <v>3.32</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.05</v>
+        <v>2.89</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>4.14</v>
+        <v>2.82</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>6.47</v>
+        <v>2.15</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>22/08/2023 04:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.23</v>
+        <v>2.34</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>23/08/2023 16:29</t>
+          <t>23/08/2023 15:31</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/vardar-sileks/fc4jghdG/</t>
         </is>
       </c>
     </row>
@@ -2321,22 +2321,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.04</v>
+        <v>1.33</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -2344,15 +2344,15 @@
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.11</v>
+        <v>1.38</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>23/08/2023 15:56</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.06</v>
+        <v>4.05</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2360,15 +2360,15 @@
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.16</v>
+        <v>4.14</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.74</v>
+        <v>6.47</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
@@ -2376,16 +2376,16 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.83</v>
+        <v>5.23</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>23/08/2023 16:28</t>
+          <t>23/08/2023 16:29</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkendija-tetovo-bregalnica-stip/hYqRnjZq/</t>
         </is>
       </c>
     </row>
@@ -2413,71 +2413,71 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>2.63</v>
+        <v>4.04</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 15:56</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>3.03</v>
+        <v>3.06</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="P22" t="n">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="R22" t="n">
-        <v>2.5</v>
+        <v>1.74</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 04:12</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>23/08/2023 16:26</t>
+          <t>23/08/2023 16:28</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/kf-gostivar-rabotnicki/GChaiWQS/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-shkupi/Ym3fhCBM/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Shkupi</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>2.05</v>
+        <v>1.27</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.12</v>
+        <v>1.3</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>2.84</v>
+        <v>4.94</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>2.8</v>
+        <v>4.64</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.25</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>26/08/2023 04:12</t>
+          <t>27/08/2023 15:13</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.62</v>
+        <v>8.25</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>27/08/2023 15:52</t>
+          <t>27/08/2023 15:53</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-makedonija-gp/Wr3fl3Al/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-kf-gostivar/hh4jkqer/</t>
         </is>
       </c>
     </row>
@@ -2781,22 +2781,22 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
-        <v>2.48</v>
+        <v>2.05</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -2804,15 +2804,15 @@
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.32</v>
+        <v>2.12</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:19</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2820,15 +2820,15 @@
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.01</v>
+        <v>2.8</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:33</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.61</v>
+        <v>3.25</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
@@ -2836,16 +2836,16 @@
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.93</v>
+        <v>3.62</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>27/08/2023 15:19</t>
+          <t>27/08/2023 15:52</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-brera-strumica/binI7iB9/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-makedonija-gp/Wr3fl3Al/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.27</v>
+        <v>2.48</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.3</v>
+        <v>2.32</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:19</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>4.94</v>
+        <v>2.78</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.64</v>
+        <v>3.01</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:33</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>8.119999999999999</v>
+        <v>2.61</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:13</t>
+          <t>26/08/2023 04:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>8.25</v>
+        <v>2.93</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>27/08/2023 15:53</t>
+          <t>27/08/2023 15:19</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/shkupi-kf-gostivar/hh4jkqer/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-brera-strumica/binI7iB9/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bregalnica Stip</t>
+          <t>Tikves</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,14 +3617,14 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Struga</t>
+          <t>Vardar</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>3.67</v>
+        <v>1.73</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>3.58</v>
+        <v>1.99</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -3640,7 +3640,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>2.98</v>
+        <v>3.13</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.13</v>
+        <v>3.05</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,7 +3656,7 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>1.85</v>
+        <v>4</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,7 +3664,7 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>1.97</v>
+        <v>3.62</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-struga/WdrT22Ps/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-vardar/Umd17rHQ/</t>
         </is>
       </c>
     </row>
@@ -3701,22 +3701,22 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Makedonija GP</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>KF Gostivar</t>
+          <t>Shkendija</t>
         </is>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1.98</v>
+        <v>4.23</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -3724,15 +3724,15 @@
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.58</v>
+        <v>3.86</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>17/09/2023 14:56</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>2.91</v>
+        <v>3.14</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3740,15 +3740,15 @@
         </is>
       </c>
       <c r="P36" t="n">
-        <v>2.81</v>
+        <v>2.61</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>17/09/2023 14:47</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.33</v>
+        <v>1.68</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
@@ -3756,16 +3756,16 @@
         </is>
       </c>
       <c r="T36" t="n">
-        <v>2.67</v>
+        <v>1.96</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>17/09/2023 14:56</t>
+          <t>17/09/2023 14:55</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-kf-gostivar/0xzpaKO6/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-shkendija-tetovo/Moyt0090/</t>
         </is>
       </c>
     </row>
@@ -3793,7 +3793,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Sileks</t>
+          <t>Rabotnicki</t>
         </is>
       </c>
       <c r="G37" t="n">
@@ -3801,22 +3801,22 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Shkendija</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>4.23</v>
+        <v>1.63</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>16/09/2023 03:13</t>
+          <t>17/09/2023 13:42</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>3.86</v>
+        <v>2.24</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
@@ -3824,15 +3824,15 @@
         </is>
       </c>
       <c r="N37" t="n">
-        <v>3.14</v>
+        <v>3.41</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>16/09/2023 03:13</t>
+          <t>17/09/2023 13:42</t>
         </is>
       </c>
       <c r="P37" t="n">
-        <v>2.61</v>
+        <v>3.09</v>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
@@ -3840,15 +3840,15 @@
         </is>
       </c>
       <c r="R37" t="n">
-        <v>1.68</v>
+        <v>4.74</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>16/09/2023 03:13</t>
+          <t>17/09/2023 13:42</t>
         </is>
       </c>
       <c r="T37" t="n">
-        <v>1.96</v>
+        <v>2.99</v>
       </c>
       <c r="U37" t="inlineStr">
         <is>
@@ -3857,7 +3857,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/sileks-shkendija-tetovo/Moyt0090/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-voska-sport/QJsX1Mvl/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tikves</t>
+          <t>Makedonija GP</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Vardar</t>
+          <t>KF Gostivar</t>
         </is>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>1.99</v>
+        <v>2.58</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:51</t>
+          <t>17/09/2023 14:56</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.13</v>
+        <v>2.91</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:51</t>
+          <t>17/09/2023 14:47</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>3.33</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.62</v>
+        <v>2.67</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>17/09/2023 14:51</t>
+          <t>17/09/2023 14:56</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/tikves-vardar/Umd17rHQ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/makedonija-gp-kf-gostivar/0xzpaKO6/</t>
         </is>
       </c>
     </row>
@@ -3977,71 +3977,71 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Rabotnicki</t>
+          <t>Bregalnica Stip</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Struga</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>1.63</v>
+        <v>3.67</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>17/09/2023 13:42</t>
+          <t>16/09/2023 03:13</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.24</v>
+        <v>3.58</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 14:51</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.41</v>
+        <v>2.98</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>17/09/2023 13:42</t>
+          <t>16/09/2023 03:13</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.09</v>
+        <v>3.13</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 14:51</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.74</v>
+        <v>1.85</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>17/09/2023 13:42</t>
+          <t>16/09/2023 03:13</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>2.99</v>
+        <v>1.97</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>17/09/2023 14:55</t>
+          <t>17/09/2023 14:51</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/rabotnicki-voska-sport/QJsX1Mvl/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/bregalnica-stip-struga/WdrT22Ps/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Voska Sport</t>
+          <t>Brera Strumica</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Shkupi</t>
+          <t>Sileks</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>3.35</v>
+        <v>1.9</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>4.03</v>
+        <v>1.9</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 12:16</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.35</v>
+        <v>3.06</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 13:04</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>2.02</v>
+        <v>3.55</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>24/09/2023 12:13</t>
+          <t>23/09/2023 02:13</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>1.79</v>
+        <v>3.89</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>24/09/2023 14:32</t>
+          <t>24/09/2023 12:16</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-sileks/lbCzMsWJ/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,163 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Brera Strumica</t>
+          <t>Voska Sport</t>
         </is>
       </c>
       <c r="G45" t="n">
+        <v>2</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Shkupi</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:13</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:32</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:13</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:32</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>24/09/2023 12:13</t>
+        </is>
+      </c>
+      <c r="T45" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>24/09/2023 14:32</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-shkupi/21GvL1oQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>north-macedonia</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>1-mfl</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45196.625</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Voska Sport</t>
+        </is>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Struga</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
         <v>1</v>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Sileks</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
-        <v>1</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>23/09/2023 02:13</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>24/09/2023 12:16</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>23/09/2023 02:13</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>24/09/2023 13:04</t>
-        </is>
-      </c>
-      <c r="R45" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>23/09/2023 02:13</t>
-        </is>
-      </c>
-      <c r="T45" t="n">
-        <v>3.89</v>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>24/09/2023 12:16</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/brera-strumica-sileks/lbCzMsWJ/</t>
+      <c r="J46" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>26/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:52</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>3</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>26/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:52</t>
+        </is>
+      </c>
+      <c r="R46" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>26/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T46" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>27/09/2023 14:52</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/north-macedonia/1-mfl/voska-sport-struga/QorZpU3d/</t>
         </is>
       </c>
     </row>
